--- a/data/clipboard_excel.xlsx
+++ b/data/clipboard_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,576 +434,597 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Enero </t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Febrero </t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Marzo </t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Abril </t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayo </t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Junio </t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">​​Julio </t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Agosto </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Septiembre </t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Octubre </t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Noviembre </t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Diciembre</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Años</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Temperatura media (°C) </t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">4.8 </t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">9.2 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">12.2 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">16.7 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">22.8 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">26 </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">25.6 </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t xml:space="preserve">20.9 </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t xml:space="preserve">15.1 </t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">8.6 </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Temperatura min. (°C) </t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.9 </t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">1.4 </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">3.8 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">6.4 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">10.3 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">15.7 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">18.8 </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">18.5 </t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t xml:space="preserve">14.8 </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve">10.2 </t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t xml:space="preserve">4.7 </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">Temperatura máx. (°C) </t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">9.5 </t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">11.4 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">15 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">17.9 </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">22.6 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">29 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve">32.4 </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">31.9 </t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">26.8 </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t xml:space="preserve">20.3 </t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t xml:space="preserve">13.2 </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">Precipitación (mm) </t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">41 </t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">34 </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">40 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">47 </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">39 </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">16 </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">8 </t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t xml:space="preserve">22 </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t xml:space="preserve">61 </t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t xml:space="preserve">55 </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">Humedad(%) </t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">77% </t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">69% </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">60% </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">57% </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">48% </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">35% </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve">28% </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t xml:space="preserve">30% </t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t xml:space="preserve">41% </t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t xml:space="preserve">60% </t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t xml:space="preserve">72% </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>77%</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">Días lluviosos (días) </t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">Horas de sol (horas) </t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">5.7 </t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">6.8 </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">8.1 </t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">9.4 </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">11.5 </t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">13.0 </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">13.1 </t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve">12.1 </t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">10.4 </t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t xml:space="preserve">7.8 </t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t xml:space="preserve">6.1 </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>5.7</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>1991-2021</t>
         </is>
